--- a/Code/Results/Cases/Case_5_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_161/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.519370042832975</v>
+        <v>0.955205556636713</v>
       </c>
       <c r="C2">
-        <v>0.594687921638382</v>
+        <v>0.1864482854024629</v>
       </c>
       <c r="D2">
-        <v>0.1191137582959527</v>
+        <v>0.1868914632242564</v>
       </c>
       <c r="E2">
-        <v>0.07573213211885133</v>
+        <v>0.1508914283903557</v>
       </c>
       <c r="F2">
-        <v>0.6914997279594317</v>
+        <v>1.292313883070292</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06890489373362385</v>
+        <v>0.1618723921170258</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6926142481296012</v>
+        <v>0.366599744145006</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.581093091517317</v>
+        <v>3.042813547782231</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.189688148689697</v>
+        <v>0.853881326929752</v>
       </c>
       <c r="C3">
-        <v>0.5215831304969356</v>
+        <v>0.1626727339524052</v>
       </c>
       <c r="D3">
-        <v>0.1085335567059573</v>
+        <v>0.1846395855138425</v>
       </c>
       <c r="E3">
-        <v>0.07182392872386245</v>
+        <v>0.1508543074532547</v>
       </c>
       <c r="F3">
-        <v>0.6638889197853786</v>
+        <v>1.298760081499744</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06805191230205665</v>
+        <v>0.1630871668864806</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6027630199114142</v>
+        <v>0.3404761391511997</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.534734918173115</v>
+        <v>3.066688282738795</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.987714415538107</v>
+        <v>0.791638805834566</v>
       </c>
       <c r="C4">
-        <v>0.4767232674944353</v>
+        <v>0.1480177641767284</v>
       </c>
       <c r="D4">
-        <v>0.1021139505358448</v>
+        <v>0.1833096438736277</v>
       </c>
       <c r="E4">
-        <v>0.06953126151829636</v>
+        <v>0.1508972905513488</v>
       </c>
       <c r="F4">
-        <v>0.6488090655087717</v>
+        <v>1.303623361375635</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06769006955762791</v>
+        <v>0.163922542971811</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5478173726481685</v>
+        <v>0.3244995179948233</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.511462191918952</v>
+        <v>3.083719490105608</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.905487176587911</v>
+        <v>0.7662685286572923</v>
       </c>
       <c r="C5">
-        <v>0.458442708385661</v>
+        <v>0.1420318546391286</v>
       </c>
       <c r="D5">
-        <v>0.0995157926649739</v>
+        <v>0.1827810063809991</v>
       </c>
       <c r="E5">
-        <v>0.06862253814435348</v>
+        <v>0.1509313656493738</v>
       </c>
       <c r="F5">
-        <v>0.6431088689680351</v>
+        <v>1.305832574178929</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06758144702438429</v>
+        <v>0.1642854613744547</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.525472209719041</v>
+        <v>0.3180052103878026</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.503210526127191</v>
+        <v>3.09125526657229</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.891837180025675</v>
+        <v>0.7620554946846596</v>
       </c>
       <c r="C6">
-        <v>0.455407065693322</v>
+        <v>0.1410370707646962</v>
       </c>
       <c r="D6">
-        <v>0.09908541141382443</v>
+        <v>0.182694033293302</v>
       </c>
       <c r="E6">
-        <v>0.06847315095384587</v>
+        <v>0.1509380244963765</v>
       </c>
       <c r="F6">
-        <v>0.642188494336672</v>
+        <v>1.306213138403535</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06756570265507378</v>
+        <v>0.1643470821168584</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5217642737298291</v>
+        <v>0.316927830377594</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.501912695869777</v>
+        <v>3.092542507885369</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.98660519620131</v>
+        <v>0.7912966756634319</v>
       </c>
       <c r="C7">
-        <v>0.4764767369636331</v>
+        <v>0.1479370918632412</v>
       </c>
       <c r="D7">
-        <v>0.102078840245369</v>
+        <v>0.1833024604424693</v>
       </c>
       <c r="E7">
-        <v>0.06951890440205588</v>
+        <v>0.1508976830268693</v>
       </c>
       <c r="F7">
-        <v>0.6487304224665422</v>
+        <v>1.303652235253701</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06768844981743527</v>
+        <v>0.1639273463439963</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5475158466225807</v>
+        <v>0.3244118670343141</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.511346012021733</v>
+        <v>3.083818710779667</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.405579937974153</v>
+        <v>0.9202757663928764</v>
       </c>
       <c r="C8">
-        <v>0.5694717290189146</v>
+        <v>0.1782624499428493</v>
       </c>
       <c r="D8">
-        <v>0.1154489183740921</v>
+        <v>0.1861041130950412</v>
       </c>
       <c r="E8">
-        <v>0.07436154494190461</v>
+        <v>0.1508649886111826</v>
       </c>
       <c r="F8">
-        <v>0.6815745646713438</v>
+        <v>1.294348484180915</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06857602295415077</v>
+        <v>0.1622726650362267</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6615806039319452</v>
+        <v>0.3575793765504258</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.563985961044523</v>
+        <v>3.050552612770474</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.2325179592724</v>
+        <v>1.172926426550134</v>
       </c>
       <c r="C9">
-        <v>0.7523754464349963</v>
+        <v>0.2372676085354328</v>
       </c>
       <c r="D9">
-        <v>0.1423448285837878</v>
+        <v>0.1920139044423479</v>
       </c>
       <c r="E9">
-        <v>0.08477182587864718</v>
+        <v>0.1513220894922505</v>
       </c>
       <c r="F9">
-        <v>0.7620998909640946</v>
+        <v>1.283299597575876</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07169124678366146</v>
+        <v>0.1597384698803808</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8875549104946003</v>
+        <v>0.4231114079752132</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.711924030125061</v>
+        <v>3.004187772235099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.845990028609776</v>
+        <v>1.358336643231496</v>
       </c>
       <c r="C10">
-        <v>0.8875932986528596</v>
+        <v>0.2803234656453526</v>
       </c>
       <c r="D10">
-        <v>0.1626227102578923</v>
+        <v>0.1966064647413219</v>
       </c>
       <c r="E10">
-        <v>0.09307464101963703</v>
+        <v>0.1519749930517058</v>
       </c>
       <c r="F10">
-        <v>0.8329581521598612</v>
+        <v>1.279587958492442</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07495232381047856</v>
+        <v>0.158310588695155</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.055773545523273</v>
+        <v>0.4715456480627509</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.853118467185993</v>
+        <v>2.981697548245677</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.127013454355506</v>
+        <v>1.442630677157752</v>
       </c>
       <c r="C11">
-        <v>0.9494148291869919</v>
+        <v>0.2998441364305791</v>
       </c>
       <c r="D11">
-        <v>0.1719853775369558</v>
+        <v>0.1987496094513546</v>
       </c>
       <c r="E11">
-        <v>0.09701733026994219</v>
+        <v>0.1523407402143455</v>
       </c>
       <c r="F11">
-        <v>0.8681847180163658</v>
+        <v>1.27886040584724</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07667939740084506</v>
+        <v>0.1577554211143237</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.132971805125024</v>
+        <v>0.4936401315067087</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.925677726602714</v>
+        <v>2.973994669067622</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.233768899644929</v>
+        <v>1.474542391286775</v>
       </c>
       <c r="C12">
-        <v>0.9728808807080611</v>
+        <v>0.3072263721823845</v>
       </c>
       <c r="D12">
-        <v>0.1755529067589094</v>
+        <v>0.1995688646865972</v>
       </c>
       <c r="E12">
-        <v>0.09853626064978727</v>
+        <v>0.152489108876793</v>
       </c>
       <c r="F12">
-        <v>0.8819954855406138</v>
+        <v>1.278723391460801</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07737136804225031</v>
+        <v>0.1575587794231978</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.162319239424932</v>
+        <v>0.5020153049566005</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.954467261010024</v>
+        <v>2.971442519217305</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.210761206843358</v>
+        <v>1.467670037866583</v>
       </c>
       <c r="C13">
-        <v>0.9678243893968386</v>
+        <v>0.3056369182774858</v>
       </c>
       <c r="D13">
-        <v>0.1747835556580526</v>
+        <v>0.1993920823406512</v>
       </c>
       <c r="E13">
-        <v>0.09820794391208665</v>
+        <v>0.1524567164007102</v>
       </c>
       <c r="F13">
-        <v>0.8789994442514342</v>
+        <v>1.278746735332092</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07722060190377533</v>
+        <v>0.1576005251332901</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.155993380233696</v>
+        <v>0.5002111905917417</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.948206589381641</v>
+        <v>2.971975927777322</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.135789169555323</v>
+        <v>1.445256253642469</v>
       </c>
       <c r="C14">
-        <v>0.9513442150959861</v>
+        <v>0.3004516763348022</v>
       </c>
       <c r="D14">
-        <v>0.1722784241986943</v>
+        <v>0.1988168562803736</v>
       </c>
       <c r="E14">
-        <v>0.0971417615348571</v>
+        <v>0.152352748914133</v>
       </c>
       <c r="F14">
-        <v>0.8693112477777021</v>
+        <v>1.278846356141187</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07673554767511348</v>
+        <v>0.1577389708635835</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.135383845658637</v>
+        <v>0.494328994392518</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.92801925185239</v>
+        <v>2.973777384702913</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.089912431725338</v>
+        <v>1.431526000947201</v>
       </c>
       <c r="C15">
-        <v>0.9412572130406147</v>
+        <v>0.2972742761241136</v>
       </c>
       <c r="D15">
-        <v>0.1707469047757399</v>
+        <v>0.1984655135535576</v>
       </c>
       <c r="E15">
-        <v>0.09649213449672089</v>
+        <v>0.1522903504687427</v>
       </c>
       <c r="F15">
-        <v>0.8634395867354812</v>
+        <v>1.278925422222954</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07644347344261604</v>
+        <v>0.1578255429376085</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.122775306330887</v>
+        <v>0.4907270717080365</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.915828488436972</v>
+        <v>2.974928368624632</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.827668549156328</v>
+        <v>1.352826702212553</v>
       </c>
       <c r="C16">
-        <v>0.883560274284747</v>
+        <v>0.2790463903798184</v>
       </c>
       <c r="D16">
-        <v>0.1620138039577625</v>
+        <v>0.1964674853564645</v>
       </c>
       <c r="E16">
-        <v>0.09282048636126206</v>
+        <v>0.1519524724047159</v>
       </c>
       <c r="F16">
-        <v>0.8307196538425927</v>
+        <v>1.279654868648706</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07484460286445227</v>
+        <v>0.1583487707996873</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.050743464023739</v>
+        <v>0.4701029273357733</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.848553784549665</v>
+        <v>2.982251925700751</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.667329573450047</v>
+        <v>1.304533411396335</v>
       </c>
       <c r="C17">
-        <v>0.8482520291963453</v>
+        <v>0.2678470870287128</v>
       </c>
       <c r="D17">
-        <v>0.1566932404031007</v>
+        <v>0.1952555336559811</v>
       </c>
       <c r="E17">
-        <v>0.09061192542990071</v>
+        <v>0.1517627889971003</v>
       </c>
       <c r="F17">
-        <v>0.8114416032349681</v>
+        <v>1.280348694960338</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07392815336313063</v>
+        <v>0.1586939392747979</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.006738794498688</v>
+        <v>0.4574661695717097</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.809495245698201</v>
+        <v>2.987393061214959</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.575286842958462</v>
+        <v>1.276751764928576</v>
       </c>
       <c r="C18">
-        <v>0.8279721493911154</v>
+        <v>0.261399386508657</v>
       </c>
       <c r="D18">
-        <v>0.1536458534301914</v>
+        <v>0.1945635346285854</v>
       </c>
       <c r="E18">
-        <v>0.08935708103675921</v>
+        <v>0.1516601590390358</v>
       </c>
       <c r="F18">
-        <v>0.8006324367153894</v>
+        <v>1.280838190060891</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07342377462158112</v>
+        <v>0.158901353837166</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9814908760896159</v>
+        <v>0.4502036518614929</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.787806354144777</v>
+        <v>2.990587983523142</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.544152006640616</v>
+        <v>1.267344626225849</v>
       </c>
       <c r="C19">
-        <v>0.8211103053378963</v>
+        <v>0.2592152599322048</v>
       </c>
       <c r="D19">
-        <v>0.1526162045381056</v>
+        <v>0.1943301108116202</v>
       </c>
       <c r="E19">
-        <v>0.08893480671872567</v>
+        <v>0.1516265221835837</v>
       </c>
       <c r="F19">
-        <v>0.7970193756428756</v>
+        <v>1.281019445458924</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0732568204000934</v>
+        <v>0.1589731059814383</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9729525852349568</v>
+        <v>0.4477456976212864</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.780592884286534</v>
+        <v>2.991710547283958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.684378901745106</v>
+        <v>1.309674803413031</v>
       </c>
       <c r="C20">
-        <v>0.8520076273647419</v>
+        <v>0.2690399120131133</v>
       </c>
       <c r="D20">
-        <v>0.1572582769372133</v>
+        <v>0.1953840223463459</v>
       </c>
       <c r="E20">
-        <v>0.09084541567993654</v>
+        <v>0.1517823115221404</v>
       </c>
       <c r="F20">
-        <v>0.8134646176958995</v>
+        <v>1.280265475044203</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07402333708207465</v>
+        <v>0.1586562760499355</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.011416588938232</v>
+        <v>0.4588107752877875</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.81357191998552</v>
+        <v>2.986821150206254</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.157800620226681</v>
+        <v>1.451839970193419</v>
       </c>
       <c r="C21">
-        <v>0.9561832409962392</v>
+        <v>0.3019749770460862</v>
       </c>
       <c r="D21">
-        <v>0.1730136238739419</v>
+        <v>0.1989856058715276</v>
       </c>
       <c r="E21">
-        <v>0.09745420418227368</v>
+        <v>0.1523830189959519</v>
       </c>
       <c r="F21">
-        <v>0.8721437742325975</v>
+        <v>1.278813333869294</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07687696488299167</v>
+        <v>0.1576979370878959</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.141434124465746</v>
+        <v>0.4960565110206687</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.93391216397589</v>
+        <v>2.97323834374032</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.469209323825396</v>
+        <v>1.544702309928937</v>
       </c>
       <c r="C22">
-        <v>1.024597810621884</v>
+        <v>0.3234425436026811</v>
       </c>
       <c r="D22">
-        <v>0.1834405802719772</v>
+        <v>0.2013842577536451</v>
       </c>
       <c r="E22">
-        <v>0.1019256034676523</v>
+        <v>0.1528331276822783</v>
       </c>
       <c r="F22">
-        <v>0.9132621676744179</v>
+        <v>1.278671672062771</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07896480822752494</v>
+        <v>0.1571508172305656</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.227082358039041</v>
+        <v>0.5204479641238891</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.020274756156823</v>
+        <v>2.966487884969268</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.302801354420978</v>
+        <v>1.495145045117056</v>
       </c>
       <c r="C23">
-        <v>0.9880496037056332</v>
+        <v>0.3119902751754182</v>
       </c>
       <c r="D23">
-        <v>0.1778628456754063</v>
+        <v>0.2000999742361387</v>
       </c>
       <c r="E23">
-        <v>0.09952447349302318</v>
+        <v>0.1525876392501146</v>
       </c>
       <c r="F23">
-        <v>0.8910488117226407</v>
+        <v>1.278673297663275</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07782906303600612</v>
+        <v>0.1574355723420666</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.181302545294685</v>
+        <v>0.5074254056939225</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.97343501762046</v>
+        <v>2.969895732445877</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.6766704739739</v>
+        <v>1.307350433524732</v>
       </c>
       <c r="C24">
-        <v>0.8503096621325597</v>
+        <v>0.2685006640703023</v>
       </c>
       <c r="D24">
-        <v>0.157002788341174</v>
+        <v>0.1953259177529247</v>
       </c>
       <c r="E24">
-        <v>0.09073980852530639</v>
+        <v>0.1517734653849949</v>
       </c>
       <c r="F24">
-        <v>0.8125491623292476</v>
+        <v>1.280302816559299</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07398023465850301</v>
+        <v>0.1586732756460201</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.00930160064177</v>
+        <v>0.4582028711593509</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.811726477021978</v>
+        <v>2.987078966113359</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.007975820283889</v>
+        <v>1.104611925491554</v>
       </c>
       <c r="C25">
-        <v>0.702787316541702</v>
+        <v>0.2213560668820378</v>
       </c>
       <c r="D25">
-        <v>0.1349859426978242</v>
+        <v>0.1903709329047842</v>
       </c>
       <c r="E25">
-        <v>0.08184810904156947</v>
+        <v>0.1511427021034635</v>
       </c>
       <c r="F25">
-        <v>0.7384052664377947</v>
+        <v>1.285516265775065</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07068805307055115</v>
+        <v>0.1603478792321518</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8260988229144175</v>
+        <v>0.4053319083973292</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.666597904625945</v>
+        <v>3.014703246928207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_161/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_161/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.955205556636713</v>
+        <v>2.519370042832975</v>
       </c>
       <c r="C2">
-        <v>0.1864482854024629</v>
+        <v>0.594687921638581</v>
       </c>
       <c r="D2">
-        <v>0.1868914632242564</v>
+        <v>0.1191137582959527</v>
       </c>
       <c r="E2">
-        <v>0.1508914283903557</v>
+        <v>0.07573213211886198</v>
       </c>
       <c r="F2">
-        <v>1.292313883070292</v>
+        <v>0.6914997279594388</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1618723921170258</v>
+        <v>0.06890489373361675</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.366599744145006</v>
+        <v>0.6926142481296012</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.042813547782231</v>
+        <v>1.581093091517204</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.853881326929752</v>
+        <v>2.18968814868964</v>
       </c>
       <c r="C3">
-        <v>0.1626727339524052</v>
+        <v>0.5215831304972198</v>
       </c>
       <c r="D3">
-        <v>0.1846395855138425</v>
+        <v>0.1085335567057442</v>
       </c>
       <c r="E3">
-        <v>0.1508543074532547</v>
+        <v>0.07182392872386245</v>
       </c>
       <c r="F3">
-        <v>1.298760081499744</v>
+        <v>0.6638889197853928</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1630871668864806</v>
+        <v>0.0680519123020602</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3404761391511997</v>
+        <v>0.6027630199114142</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.066688282738795</v>
+        <v>1.534734918173086</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.791638805834566</v>
+        <v>1.987714415538221</v>
       </c>
       <c r="C4">
-        <v>0.1480177641767284</v>
+        <v>0.476723267494549</v>
       </c>
       <c r="D4">
-        <v>0.1833096438736277</v>
+        <v>0.1021139505358448</v>
       </c>
       <c r="E4">
-        <v>0.1508972905513488</v>
+        <v>0.06953126151828215</v>
       </c>
       <c r="F4">
-        <v>1.303623361375635</v>
+        <v>0.6488090655088001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.163922542971811</v>
+        <v>0.06769006955767765</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3244995179948233</v>
+        <v>0.5478173726481685</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.083719490105608</v>
+        <v>1.511462191918923</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7662685286572923</v>
+        <v>1.905487176587883</v>
       </c>
       <c r="C5">
-        <v>0.1420318546391286</v>
+        <v>0.4584427083857179</v>
       </c>
       <c r="D5">
-        <v>0.1827810063809991</v>
+        <v>0.09951579266500232</v>
       </c>
       <c r="E5">
-        <v>0.1509313656493738</v>
+        <v>0.06862253814434638</v>
       </c>
       <c r="F5">
-        <v>1.305832574178929</v>
+        <v>0.6431088689680422</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1642854613744547</v>
+        <v>0.06758144702425994</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3180052103878026</v>
+        <v>0.5254722097190339</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.09125526657229</v>
+        <v>1.503210526127191</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7620554946846596</v>
+        <v>1.891837180025533</v>
       </c>
       <c r="C6">
-        <v>0.1410370707646962</v>
+        <v>0.4554070656928957</v>
       </c>
       <c r="D6">
-        <v>0.182694033293302</v>
+        <v>0.0990854114137818</v>
       </c>
       <c r="E6">
-        <v>0.1509380244963765</v>
+        <v>0.06847315095381745</v>
       </c>
       <c r="F6">
-        <v>1.306213138403535</v>
+        <v>0.6421884943366578</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1643470821168584</v>
+        <v>0.06756570265514839</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.316927830377594</v>
+        <v>0.5217642737298362</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.092542507885369</v>
+        <v>1.501912695869777</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7912966756634319</v>
+        <v>1.986605196201253</v>
       </c>
       <c r="C7">
-        <v>0.1479370918632412</v>
+        <v>0.47647673696315</v>
       </c>
       <c r="D7">
-        <v>0.1833024604424693</v>
+        <v>0.1020788402455608</v>
       </c>
       <c r="E7">
-        <v>0.1508976830268693</v>
+        <v>0.06951890440207009</v>
       </c>
       <c r="F7">
-        <v>1.303652235253701</v>
+        <v>0.6487304224665564</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1639273463439963</v>
+        <v>0.06768844981744238</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3244118670343141</v>
+        <v>0.5475158466225949</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.083818710779667</v>
+        <v>1.511346012021676</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9202757663928764</v>
+        <v>2.405579937974039</v>
       </c>
       <c r="C8">
-        <v>0.1782624499428493</v>
+        <v>0.5694717290189146</v>
       </c>
       <c r="D8">
-        <v>0.1861041130950412</v>
+        <v>0.1154489183741205</v>
       </c>
       <c r="E8">
-        <v>0.1508649886111826</v>
+        <v>0.07436154494190106</v>
       </c>
       <c r="F8">
-        <v>1.294348484180915</v>
+        <v>0.6815745646713651</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1622726650362267</v>
+        <v>0.06857602295414011</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3575793765504258</v>
+        <v>0.6615806039319523</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.050552612770474</v>
+        <v>1.563985961044466</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.172926426550134</v>
+        <v>3.232517959272343</v>
       </c>
       <c r="C9">
-        <v>0.2372676085354328</v>
+        <v>0.7523754464352237</v>
       </c>
       <c r="D9">
-        <v>0.1920139044423479</v>
+        <v>0.1423448285839015</v>
       </c>
       <c r="E9">
-        <v>0.1513220894922505</v>
+        <v>0.08477182587863652</v>
       </c>
       <c r="F9">
-        <v>1.283299597575876</v>
+        <v>0.7620998909640946</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1597384698803808</v>
+        <v>0.07169124678354422</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4231114079752132</v>
+        <v>0.8875549104946217</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.004187772235099</v>
+        <v>1.711924030125061</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.358336643231496</v>
+        <v>3.845990028609776</v>
       </c>
       <c r="C10">
-        <v>0.2803234656453526</v>
+        <v>0.8875932986527175</v>
       </c>
       <c r="D10">
-        <v>0.1966064647413219</v>
+        <v>0.1626227102579207</v>
       </c>
       <c r="E10">
-        <v>0.1519749930517058</v>
+        <v>0.09307464101963703</v>
       </c>
       <c r="F10">
-        <v>1.279587958492442</v>
+        <v>0.8329581521598612</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.158310588695155</v>
+        <v>0.07495232381050698</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4715456480627509</v>
+        <v>1.055773545523273</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.981697548245677</v>
+        <v>1.853118467185993</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.442630677157752</v>
+        <v>4.127013454355335</v>
       </c>
       <c r="C11">
-        <v>0.2998441364305791</v>
+        <v>0.9494148291871056</v>
       </c>
       <c r="D11">
-        <v>0.1987496094513546</v>
+        <v>0.1719853775367994</v>
       </c>
       <c r="E11">
-        <v>0.1523407402143455</v>
+        <v>0.0970173302699564</v>
       </c>
       <c r="F11">
-        <v>1.27886040584724</v>
+        <v>0.8681847180163658</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1577554211143237</v>
+        <v>0.07667939740083796</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4936401315067087</v>
+        <v>1.13297180512501</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.973994669067622</v>
+        <v>1.925677726602686</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.474542391286775</v>
+        <v>4.233768899644929</v>
       </c>
       <c r="C12">
-        <v>0.3072263721823845</v>
+        <v>0.9728808807080895</v>
       </c>
       <c r="D12">
-        <v>0.1995688646865972</v>
+        <v>0.1755529067589237</v>
       </c>
       <c r="E12">
-        <v>0.152489108876793</v>
+        <v>0.09853626064974819</v>
       </c>
       <c r="F12">
-        <v>1.278723391460801</v>
+        <v>0.881995485540628</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1575587794231978</v>
+        <v>0.07737136804231426</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5020153049566005</v>
+        <v>1.162319239424932</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.971442519217305</v>
+        <v>1.95446726101008</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.467670037866583</v>
+        <v>4.210761206843472</v>
       </c>
       <c r="C13">
-        <v>0.3056369182774858</v>
+        <v>0.9678243893967249</v>
       </c>
       <c r="D13">
-        <v>0.1993920823406512</v>
+        <v>0.1747835556580952</v>
       </c>
       <c r="E13">
-        <v>0.1524567164007102</v>
+        <v>0.09820794391207244</v>
       </c>
       <c r="F13">
-        <v>1.278746735332092</v>
+        <v>0.8789994442514342</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1576005251332901</v>
+        <v>0.07722060190376112</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5002111905917417</v>
+        <v>1.155993380233681</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.971975927777322</v>
+        <v>1.948206589381527</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.445256253642469</v>
+        <v>4.13578916955521</v>
       </c>
       <c r="C14">
-        <v>0.3004516763348022</v>
+        <v>0.9513442150958724</v>
       </c>
       <c r="D14">
-        <v>0.1988168562803736</v>
+        <v>0.1722784241985522</v>
       </c>
       <c r="E14">
-        <v>0.152352748914133</v>
+        <v>0.09714176153487131</v>
       </c>
       <c r="F14">
-        <v>1.278846356141187</v>
+        <v>0.8693112477777021</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1577389708635835</v>
+        <v>0.07673554767514901</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.494328994392518</v>
+        <v>1.135383845658637</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.973777384702913</v>
+        <v>1.928019251852362</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.431526000947201</v>
+        <v>4.089912431725338</v>
       </c>
       <c r="C15">
-        <v>0.2972742761241136</v>
+        <v>0.9412572130408137</v>
       </c>
       <c r="D15">
-        <v>0.1984655135535576</v>
+        <v>0.1707469047757399</v>
       </c>
       <c r="E15">
-        <v>0.1522903504687427</v>
+        <v>0.09649213449673155</v>
       </c>
       <c r="F15">
-        <v>1.278925422222954</v>
+        <v>0.8634395867355096</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1578255429376085</v>
+        <v>0.0764434734425592</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4907270717080365</v>
+        <v>1.122775306330901</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.974928368624632</v>
+        <v>1.915828488436972</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.352826702212553</v>
+        <v>3.827668549156328</v>
       </c>
       <c r="C16">
-        <v>0.2790463903798184</v>
+        <v>0.8835602742846049</v>
       </c>
       <c r="D16">
-        <v>0.1964674853564645</v>
+        <v>0.162013803957791</v>
       </c>
       <c r="E16">
-        <v>0.1519524724047159</v>
+        <v>0.09282048636129048</v>
       </c>
       <c r="F16">
-        <v>1.279654868648706</v>
+        <v>0.8307196538426069</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1583487707996873</v>
+        <v>0.07484460286440253</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4701029273357733</v>
+        <v>1.050743464023753</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.982251925700751</v>
+        <v>1.848553784549694</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.304533411396335</v>
+        <v>3.667329573450047</v>
       </c>
       <c r="C17">
-        <v>0.2678470870287128</v>
+        <v>0.8482520291966011</v>
       </c>
       <c r="D17">
-        <v>0.1952555336559811</v>
+        <v>0.1566932404029444</v>
       </c>
       <c r="E17">
-        <v>0.1517627889971003</v>
+        <v>0.09061192542986873</v>
       </c>
       <c r="F17">
-        <v>1.280348694960338</v>
+        <v>0.8114416032349823</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1586939392747979</v>
+        <v>0.07392815336330116</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4574661695717097</v>
+        <v>1.006738794498716</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.987393061214959</v>
+        <v>1.80949524569823</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.276751764928576</v>
+        <v>3.575286842958519</v>
       </c>
       <c r="C18">
-        <v>0.261399386508657</v>
+        <v>0.8279721493913712</v>
       </c>
       <c r="D18">
-        <v>0.1945635346285854</v>
+        <v>0.1536458534304046</v>
       </c>
       <c r="E18">
-        <v>0.1516601590390358</v>
+        <v>0.08935708103674145</v>
       </c>
       <c r="F18">
-        <v>1.280838190060891</v>
+        <v>0.8006324367153894</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.158901353837166</v>
+        <v>0.07342377462162375</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4502036518614929</v>
+        <v>0.9814908760896017</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.990587983523142</v>
+        <v>1.787806354144806</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.267344626225849</v>
+        <v>3.544152006640729</v>
       </c>
       <c r="C19">
-        <v>0.2592152599322048</v>
+        <v>0.8211103053380953</v>
       </c>
       <c r="D19">
-        <v>0.1943301108116202</v>
+        <v>0.1526162045381767</v>
       </c>
       <c r="E19">
-        <v>0.1516265221835837</v>
+        <v>0.08893480671872211</v>
       </c>
       <c r="F19">
-        <v>1.281019445458924</v>
+        <v>0.7970193756428756</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1589731059814383</v>
+        <v>0.07325682040021064</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4477456976212864</v>
+        <v>0.9729525852349354</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.991710547283958</v>
+        <v>1.780592884286534</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.309674803413031</v>
+        <v>3.684378901745049</v>
       </c>
       <c r="C20">
-        <v>0.2690399120131133</v>
+        <v>0.8520076273647135</v>
       </c>
       <c r="D20">
-        <v>0.1953840223463459</v>
+        <v>0.1572582769369149</v>
       </c>
       <c r="E20">
-        <v>0.1517823115221404</v>
+        <v>0.09084541567996851</v>
       </c>
       <c r="F20">
-        <v>1.280265475044203</v>
+        <v>0.8134646176958853</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1586562760499355</v>
+        <v>0.07402333708210307</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4588107752877875</v>
+        <v>1.011416588938246</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.986821150206254</v>
+        <v>1.813571919985492</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.451839970193419</v>
+        <v>4.157800620226737</v>
       </c>
       <c r="C21">
-        <v>0.3019749770460862</v>
+        <v>0.9561832409966087</v>
       </c>
       <c r="D21">
-        <v>0.1989856058715276</v>
+        <v>0.1730136238739277</v>
       </c>
       <c r="E21">
-        <v>0.1523830189959519</v>
+        <v>0.09745420418227724</v>
       </c>
       <c r="F21">
-        <v>1.278813333869294</v>
+        <v>0.8721437742325548</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1576979370878959</v>
+        <v>0.07687696488311957</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4960565110206687</v>
+        <v>1.141434124465746</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.97323834374032</v>
+        <v>1.93391216397589</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.544702309928937</v>
+        <v>4.469209323825396</v>
       </c>
       <c r="C22">
-        <v>0.3234425436026811</v>
+        <v>1.024597810622055</v>
       </c>
       <c r="D22">
-        <v>0.2013842577536451</v>
+        <v>0.1834405802719772</v>
       </c>
       <c r="E22">
-        <v>0.1528331276822783</v>
+        <v>0.1019256034676488</v>
       </c>
       <c r="F22">
-        <v>1.278671672062771</v>
+        <v>0.9132621676744179</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1571508172305656</v>
+        <v>0.07896480822751784</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5204479641238891</v>
+        <v>1.227082358039041</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.966487884969268</v>
+        <v>2.020274756156823</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.495145045117056</v>
+        <v>4.302801354420978</v>
       </c>
       <c r="C23">
-        <v>0.3119902751754182</v>
+        <v>0.9880496037056901</v>
       </c>
       <c r="D23">
-        <v>0.2000999742361387</v>
+        <v>0.1778628456754916</v>
       </c>
       <c r="E23">
-        <v>0.1525876392501146</v>
+        <v>0.0995244734930516</v>
       </c>
       <c r="F23">
-        <v>1.278673297663275</v>
+        <v>0.8910488117226407</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1574355723420666</v>
+        <v>0.0778290630359848</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5074254056939225</v>
+        <v>1.181302545294656</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.969895732445877</v>
+        <v>1.97343501762046</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.307350433524732</v>
+        <v>3.6766704739739</v>
       </c>
       <c r="C24">
-        <v>0.2685006640703023</v>
+        <v>0.8503096621324744</v>
       </c>
       <c r="D24">
-        <v>0.1953259177529247</v>
+        <v>0.1570027883410319</v>
       </c>
       <c r="E24">
-        <v>0.1517734653849949</v>
+        <v>0.09073980852530994</v>
       </c>
       <c r="F24">
-        <v>1.280302816559299</v>
+        <v>0.8125491623292334</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1586732756460201</v>
+        <v>0.07398023465858827</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4582028711593509</v>
+        <v>1.009301600641756</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.987078966113359</v>
+        <v>1.811726477021978</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.104611925491554</v>
+        <v>3.007975820284003</v>
       </c>
       <c r="C25">
-        <v>0.2213560668820378</v>
+        <v>0.7027873165419862</v>
       </c>
       <c r="D25">
-        <v>0.1903709329047842</v>
+        <v>0.1349859426980515</v>
       </c>
       <c r="E25">
-        <v>0.1511427021034635</v>
+        <v>0.08184810904155171</v>
       </c>
       <c r="F25">
-        <v>1.285516265775065</v>
+        <v>0.7384052664377947</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1603478792321518</v>
+        <v>0.07068805307049786</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4053319083973292</v>
+        <v>0.8260988229144175</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.014703246928207</v>
+        <v>1.666597904625974</v>
       </c>
     </row>
   </sheetData>
